--- a/Data/OCM.xlsx
+++ b/Data/OCM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm1om\Documents\Research\Cancer\Bladder\model data\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm1om\Documents\Research\Cancer\Bladder\Bladder_cancer_model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE200A48-C11A-4FC0-9C5D-4E4C1819ED0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9C204-ACD0-4B25-841D-C4269AA79973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{309ACC7B-024A-4429-A164-6985D35A1A8B}"/>
   </bookViews>
@@ -643,12 +643,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE86C4-AE0D-44E4-9F43-BB49DBCABC35}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.42578125" customWidth="1"/>
@@ -810,7 +811,7 @@
         <v>2.2900000000000001E-4</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R2:R33" si="4">C3-P3</f>
+        <f t="shared" ref="R3:R33" si="4">C3-P3</f>
         <v>2.14E-4</v>
       </c>
       <c r="T3" s="6" t="s">
@@ -871,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q3:Q33" si="5">B4-O4</f>
+        <f t="shared" ref="Q4:Q33" si="5">B4-O4</f>
         <v>1.27E-4</v>
       </c>
       <c r="R4" s="2">
